--- a/data/education/original/Tab7_FOD.xlsx
+++ b/data/education/original/Tab7_FOD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Table 7"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t xml:space="preserve">Table M3: Margins of Error for Median Annual Earnings for Field of Bachelor's Degree for First Major by Select Metropolitan Statistical Areas in 2022 </t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Arts, Humanities, and Other Degrees</t>
+  </si>
+  <si>
+    <t>Select Metropolitan Statistical Areas</t>
   </si>
   <si>
     <t xml:space="preserve">Less than a Bachelor's degree </t>
@@ -63,7 +66,7 @@
     <t xml:space="preserve">Mechanical Engineering </t>
   </si>
   <si>
-    <t>Mathmatics</t>
+    <t>Mathematics</t>
   </si>
   <si>
     <t xml:space="preserve">Biology </t>
@@ -309,9 +312,6 @@
     <t xml:space="preserve">Arts, Humanities and Other Degrees </t>
   </si>
   <si>
-    <t>Select Metropolitan Statistical Areas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Less than a Bachelor's Degree </t>
   </si>
   <si>
@@ -388,7 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -549,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -636,7 +636,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,9 +658,6 @@
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,14 +963,14 @@
   </sheetPr>
   <dimension ref="A1:AK71"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="28" width="46.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="37" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="29" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="29" width="15.719285714285713" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="29" width="15.719285714285713" customWidth="1" bestFit="1"/>
@@ -1013,7 +1010,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -1055,7 +1052,7 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3"/>
       <c r="B2" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -1096,11 +1093,11 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="19"/>
       <c r="B3" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -1129,7 +1126,7 @@
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
       <c r="AA3" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" s="32"/>
       <c r="AC3" s="32"/>
@@ -1144,115 +1141,115 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="61.5" customFormat="1" s="34">
       <c r="A4" s="35" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="36" t="s">
         <v>84</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -1370,7 +1367,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="14">
         <v>40740</v>
@@ -1483,7 +1480,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18">
         <v>44190</v>
@@ -1596,7 +1593,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <v>45110</v>
@@ -1709,7 +1706,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="14">
         <v>46460</v>
@@ -1822,7 +1819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="18">
         <v>40430</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="14">
         <v>41670</v>
@@ -2048,7 +2045,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="18">
         <v>41460</v>
@@ -2161,7 +2158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="14">
         <v>41020</v>
@@ -2274,7 +2271,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="18">
         <v>47140</v>
@@ -2387,7 +2384,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="14">
         <v>40230</v>
@@ -2500,7 +2497,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="14">
         <v>39340</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="18">
         <v>39250</v>
@@ -2726,7 +2723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="14">
         <v>37550</v>
@@ -2839,7 +2836,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="14">
         <v>35690</v>
@@ -2952,7 +2949,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="18">
         <v>47410</v>
@@ -3065,7 +3062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="14">
         <v>41020</v>
@@ -3178,7 +3175,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="18">
         <v>37710</v>
@@ -3291,7 +3288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="14">
         <v>42820</v>
@@ -3404,7 +3401,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="14">
         <v>42800</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="18">
         <v>42130</v>
@@ -3630,7 +3627,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="18">
         <v>44090</v>
@@ -3743,7 +3740,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="14">
         <v>40730</v>
@@ -3856,7 +3853,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="18">
         <v>43780</v>
@@ -3969,7 +3966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="18">
         <v>41420</v>
@@ -4082,7 +4079,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="18">
         <v>36640</v>
@@ -4195,7 +4192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="18">
         <v>41990</v>
@@ -4308,7 +4305,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="14">
         <v>45020</v>
@@ -4421,7 +4418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="14">
         <v>50940</v>
@@ -4534,7 +4531,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="18">
         <v>38830</v>
@@ -4647,7 +4644,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="20">
         <v>44800</v>
@@ -4760,7 +4757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -4801,7 +4798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -6188,7 +6185,7 @@
   </sheetPr>
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
@@ -6274,7 +6271,7 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6315,7 +6312,7 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
@@ -6364,120 +6361,122 @@
       <c r="AJ3" s="9"/>
       <c r="AK3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="10"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="61.5">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="14">
         <v>50</v>
@@ -6588,9 +6587,9 @@
         <v>420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="14">
         <v>425</v>
@@ -6701,9 +6700,9 @@
         <v>2277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="18">
         <v>1456</v>
@@ -6814,9 +6813,9 @@
         <v>5393</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="18">
         <v>1203</v>
@@ -6927,9 +6926,9 @@
         <v>4684</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="14">
         <v>780</v>
@@ -7040,9 +7039,9 @@
         <v>2367</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="18">
         <v>597</v>
@@ -7153,9 +7152,9 @@
         <v>5693</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="14">
         <v>323</v>
@@ -7266,9 +7265,9 @@
         <v>3277</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="18">
         <v>641</v>
@@ -7379,9 +7378,9 @@
         <v>8571</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="14">
         <v>402</v>
@@ -7492,9 +7491,9 @@
         <v>3167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="18">
         <v>998</v>
@@ -7605,9 +7604,9 @@
         <v>5194</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="14">
         <v>450</v>
@@ -7718,9 +7717,9 @@
         <v>6078</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="14">
         <v>728</v>
@@ -7831,9 +7830,9 @@
         <v>4660</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="18">
         <v>979</v>
@@ -7944,9 +7943,9 @@
         <v>7275</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="14">
         <v>398</v>
@@ -8057,9 +8056,9 @@
         <v>2225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="14">
         <v>460</v>
@@ -8170,9 +8169,9 @@
         <v>2862</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="18">
         <v>701</v>
@@ -8283,9 +8282,9 @@
         <v>3421</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="14">
         <v>289</v>
@@ -8396,9 +8395,9 @@
         <v>2111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="18">
         <v>1013</v>
@@ -8509,9 +8508,9 @@
         <v>4018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="14">
         <v>810</v>
@@ -8622,9 +8621,9 @@
         <v>2429</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="14">
         <v>701</v>
@@ -8735,9 +8734,9 @@
         <v>2026</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="18">
         <v>772</v>
@@ -8848,9 +8847,9 @@
         <v>4089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="18">
         <v>971</v>
@@ -8961,9 +8960,9 @@
         <v>3932</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="14">
         <v>456</v>
@@ -9074,9 +9073,9 @@
         <v>5003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="18">
         <v>997</v>
@@ -9187,9 +9186,9 @@
         <v>6633</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="18">
         <v>568</v>
@@ -9300,9 +9299,9 @@
         <v>3628</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="18">
         <v>788</v>
@@ -9413,9 +9412,9 @@
         <v>6146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="18">
         <v>592</v>
@@ -9526,9 +9525,9 @@
         <v>6554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="14">
         <v>1186</v>
@@ -9639,9 +9638,9 @@
         <v>4713</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="14">
         <v>650</v>
@@ -9752,9 +9751,9 @@
         <v>3461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="18">
         <v>915</v>
@@ -9865,9 +9864,9 @@
         <v>2763</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="20">
         <v>746</v>
@@ -9978,9 +9977,9 @@
         <v>2653</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -10019,9 +10018,9 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -10060,9 +10059,9 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
